--- a/public/assets/report/report-11.xlsx
+++ b/public/assets/report/report-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3CD56-F354-43EF-B0D3-66408BD0A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C730D-19E2-4F5D-8A1D-DD2B93E52550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C168CAB2-6B48-4071-981D-C5105527579B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="538">
   <si>
     <t>FORMULIR 11</t>
   </si>
@@ -1554,9 +1554,6 @@
     <t>Perdarahan post partum</t>
   </si>
   <si>
-    <t>072.1</t>
-  </si>
-  <si>
     <t>Persalinan lama</t>
   </si>
   <si>
@@ -1638,13 +1635,10 @@
     <t>NIP. 199803042022032013</t>
   </si>
   <si>
-    <t>MARET</t>
-  </si>
-  <si>
-    <t>Makassar, 5 April 2025</t>
-  </si>
-  <si>
     <t>K35.9</t>
+  </si>
+  <si>
+    <t>O72.1</t>
   </si>
 </sst>
 </file>
@@ -2362,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB7FF2-217F-486D-963B-5ACFB82FB8D4}">
   <dimension ref="A1:S364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P357" sqref="P357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2475,9 +2469,7 @@
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>537</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5" t="s">
         <v>4</v>
@@ -2529,9 +2521,7 @@
       <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="8">
-        <v>2025</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="5" t="s">
         <v>9</v>
@@ -3928,7 +3918,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
@@ -13157,7 +13147,7 @@
         <v>508</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="D342" s="26"/>
       <c r="E342" s="26"/>
@@ -13181,10 +13171,10 @@
         <v>12</v>
       </c>
       <c r="B343" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C343" s="13" t="s">
         <v>510</v>
-      </c>
-      <c r="C343" s="13" t="s">
-        <v>511</v>
       </c>
       <c r="D343" s="26"/>
       <c r="E343" s="26"/>
@@ -13208,10 +13198,10 @@
         <v>13</v>
       </c>
       <c r="B344" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C344" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="C344" s="13" t="s">
-        <v>513</v>
       </c>
       <c r="D344" s="26"/>
       <c r="E344" s="26"/>
@@ -13235,10 +13225,10 @@
         <v>14</v>
       </c>
       <c r="B345" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C345" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="C345" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="D345" s="29"/>
       <c r="E345" s="26"/>
@@ -13262,10 +13252,10 @@
         <v>15</v>
       </c>
       <c r="B346" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C346" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="C346" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="D346" s="18"/>
       <c r="E346" s="18"/>
@@ -13286,10 +13276,10 @@
     </row>
     <row r="347" spans="1:19" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B347" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="B347" s="13" t="s">
-        <v>519</v>
       </c>
       <c r="C347" s="14"/>
       <c r="D347" s="27"/>
@@ -13314,10 +13304,10 @@
         <v>1</v>
       </c>
       <c r="B348" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C348" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="C348" s="13" t="s">
-        <v>521</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28"/>
@@ -13341,10 +13331,10 @@
         <v>2</v>
       </c>
       <c r="B349" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C349" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="C349" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
@@ -13507,10 +13497,10 @@
         <v>3</v>
       </c>
       <c r="B353" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C353" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="C353" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="D353" s="29"/>
       <c r="E353" s="26"/>
@@ -13534,10 +13524,10 @@
         <v>4</v>
       </c>
       <c r="B354" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C354" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>527</v>
       </c>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
@@ -13561,10 +13551,10 @@
         <v>5</v>
       </c>
       <c r="B355" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C355" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="28"/>
@@ -13620,9 +13610,7 @@
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
-      <c r="P357" s="24" t="s">
-        <v>538</v>
-      </c>
+      <c r="P357" s="24"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
@@ -13630,7 +13618,7 @@
     <row r="358" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -13653,7 +13641,7 @@
     <row r="359" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -13669,7 +13657,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q359" s="1"/>
       <c r="R359" s="2"/>
@@ -13741,7 +13729,7 @@
     <row r="363" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -13757,7 +13745,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
       <c r="P363" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
@@ -13766,7 +13754,7 @@
     <row r="364" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -13782,7 +13770,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>

--- a/public/assets/report/report-11.xlsx
+++ b/public/assets/report/report-11.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C730D-19E2-4F5D-8A1D-DD2B93E52550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54683854-8E0F-42FA-858F-9AC8048F220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C168CAB2-6B48-4071-981D-C5105527579B}"/>
   </bookViews>
   <sheets>
-    <sheet name="formulir 11 mar 25" sheetId="2" r:id="rId1"/>
+    <sheet name="formulir 11" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2016,13 +2016,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,10 +2031,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2367,50 +2367,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -2509,14 +2509,14 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5" t="s">
         <v>8</v>
@@ -2557,40 +2557,40 @@
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="35" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2850,40 +2850,40 @@
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="35" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
@@ -3205,40 +3205,40 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="35" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="37"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3585,40 +3585,40 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="35" t="s">
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="36"/>
-      <c r="S41" s="37"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="36"/>
     </row>
     <row r="42" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
@@ -3938,40 +3938,40 @@
       <c r="S51" s="28"/>
     </row>
     <row r="52" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="35" t="s">
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R52" s="36"/>
-      <c r="S52" s="37"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="36"/>
     </row>
     <row r="53" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="8" t="s">
         <v>15</v>
       </c>
@@ -4320,40 +4320,40 @@
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="35" t="s">
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R64" s="36"/>
-      <c r="S64" s="37"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="36"/>
     </row>
     <row r="65" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="8" t="s">
         <v>15</v>
       </c>
@@ -4729,40 +4729,40 @@
       <c r="S76" s="18"/>
     </row>
     <row r="77" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="35" t="s">
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R77" s="36"/>
-      <c r="S77" s="37"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="36"/>
     </row>
     <row r="78" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="8" t="s">
         <v>15</v>
       </c>
@@ -5053,40 +5053,40 @@
       <c r="S86" s="6"/>
     </row>
     <row r="87" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="35" t="s">
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R87" s="36"/>
-      <c r="S87" s="37"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="36"/>
     </row>
     <row r="88" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="8" t="s">
         <v>15</v>
       </c>
@@ -5429,40 +5429,40 @@
       <c r="S98" s="26"/>
     </row>
     <row r="99" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="35" t="s">
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R99" s="36"/>
-      <c r="S99" s="37"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="36"/>
     </row>
     <row r="100" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="8" t="s">
         <v>15</v>
       </c>
@@ -5807,40 +5807,40 @@
       <c r="S110" s="18"/>
     </row>
     <row r="111" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="37"/>
-      <c r="Q111" s="35" t="s">
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R111" s="36"/>
-      <c r="S111" s="37"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="36"/>
     </row>
     <row r="112" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
       <c r="D112" s="8" t="s">
         <v>15</v>
       </c>
@@ -6189,40 +6189,40 @@
       <c r="S122" s="6"/>
     </row>
     <row r="123" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="36"/>
-      <c r="M123" s="36"/>
-      <c r="N123" s="36"/>
-      <c r="O123" s="36"/>
-      <c r="P123" s="37"/>
-      <c r="Q123" s="35" t="s">
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R123" s="36"/>
-      <c r="S123" s="37"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="36"/>
     </row>
     <row r="124" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
       <c r="D124" s="8" t="s">
         <v>15</v>
       </c>
@@ -6569,40 +6569,40 @@
       <c r="S134" s="6"/>
     </row>
     <row r="135" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="38" t="s">
+      <c r="A135" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36"/>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="37"/>
-      <c r="Q135" s="35" t="s">
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R135" s="36"/>
-      <c r="S135" s="37"/>
+      <c r="R135" s="35"/>
+      <c r="S135" s="36"/>
     </row>
     <row r="136" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
       <c r="D136" s="8" t="s">
         <v>15</v>
       </c>
@@ -6943,40 +6943,40 @@
       <c r="S146" s="14"/>
     </row>
     <row r="147" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="35" t="s">
+      <c r="D147" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-      <c r="L147" s="36"/>
-      <c r="M147" s="36"/>
-      <c r="N147" s="36"/>
-      <c r="O147" s="36"/>
-      <c r="P147" s="37"/>
-      <c r="Q147" s="35" t="s">
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="35"/>
+      <c r="N147" s="35"/>
+      <c r="O147" s="35"/>
+      <c r="P147" s="36"/>
+      <c r="Q147" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R147" s="36"/>
-      <c r="S147" s="37"/>
+      <c r="R147" s="35"/>
+      <c r="S147" s="36"/>
     </row>
     <row r="148" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
       <c r="D148" s="8" t="s">
         <v>15</v>
       </c>
@@ -7352,40 +7352,40 @@
       <c r="S159" s="26"/>
     </row>
     <row r="160" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="35" t="s">
+      <c r="D160" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="36"/>
-      <c r="M160" s="36"/>
-      <c r="N160" s="36"/>
-      <c r="O160" s="36"/>
-      <c r="P160" s="37"/>
-      <c r="Q160" s="35" t="s">
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="35"/>
+      <c r="L160" s="35"/>
+      <c r="M160" s="35"/>
+      <c r="N160" s="35"/>
+      <c r="O160" s="35"/>
+      <c r="P160" s="36"/>
+      <c r="Q160" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R160" s="36"/>
-      <c r="S160" s="37"/>
+      <c r="R160" s="35"/>
+      <c r="S160" s="36"/>
     </row>
     <row r="161" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
       <c r="D161" s="8" t="s">
         <v>15</v>
       </c>
@@ -7759,40 +7759,40 @@
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="38" t="s">
+      <c r="A173" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="35" t="s">
+      <c r="D173" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-      <c r="L173" s="36"/>
-      <c r="M173" s="36"/>
-      <c r="N173" s="36"/>
-      <c r="O173" s="36"/>
-      <c r="P173" s="37"/>
-      <c r="Q173" s="35" t="s">
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="35"/>
+      <c r="K173" s="35"/>
+      <c r="L173" s="35"/>
+      <c r="M173" s="35"/>
+      <c r="N173" s="35"/>
+      <c r="O173" s="35"/>
+      <c r="P173" s="36"/>
+      <c r="Q173" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R173" s="36"/>
-      <c r="S173" s="37"/>
+      <c r="R173" s="35"/>
+      <c r="S173" s="36"/>
     </row>
     <row r="174" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
       <c r="D174" s="8" t="s">
         <v>15</v>
       </c>
@@ -8114,40 +8114,40 @@
       <c r="S183" s="18"/>
     </row>
     <row r="184" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="38" t="s">
+      <c r="A184" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="D184" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="36"/>
-      <c r="N184" s="36"/>
-      <c r="O184" s="36"/>
-      <c r="P184" s="37"/>
-      <c r="Q184" s="35" t="s">
+      <c r="E184" s="35"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
+      <c r="J184" s="35"/>
+      <c r="K184" s="35"/>
+      <c r="L184" s="35"/>
+      <c r="M184" s="35"/>
+      <c r="N184" s="35"/>
+      <c r="O184" s="35"/>
+      <c r="P184" s="36"/>
+      <c r="Q184" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R184" s="36"/>
-      <c r="S184" s="37"/>
+      <c r="R184" s="35"/>
+      <c r="S184" s="36"/>
     </row>
     <row r="185" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="39"/>
-      <c r="B185" s="39"/>
-      <c r="C185" s="39"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="33"/>
       <c r="D185" s="8" t="s">
         <v>15</v>
       </c>
@@ -8467,40 +8467,40 @@
       <c r="S194" s="8"/>
     </row>
     <row r="195" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="38" t="s">
+      <c r="A195" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C195" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D195" s="35" t="s">
+      <c r="D195" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="36"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
-      <c r="L195" s="36"/>
-      <c r="M195" s="36"/>
-      <c r="N195" s="36"/>
-      <c r="O195" s="36"/>
-      <c r="P195" s="37"/>
-      <c r="Q195" s="35" t="s">
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="35"/>
+      <c r="J195" s="35"/>
+      <c r="K195" s="35"/>
+      <c r="L195" s="35"/>
+      <c r="M195" s="35"/>
+      <c r="N195" s="35"/>
+      <c r="O195" s="35"/>
+      <c r="P195" s="36"/>
+      <c r="Q195" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R195" s="36"/>
-      <c r="S195" s="37"/>
+      <c r="R195" s="35"/>
+      <c r="S195" s="36"/>
     </row>
     <row r="196" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
       <c r="D196" s="8" t="s">
         <v>15</v>
       </c>
@@ -8847,40 +8847,40 @@
       <c r="S206" s="26"/>
     </row>
     <row r="207" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="38" t="s">
+      <c r="A207" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C207" s="38" t="s">
+      <c r="C207" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D207" s="35" t="s">
+      <c r="D207" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E207" s="36"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
-      <c r="L207" s="36"/>
-      <c r="M207" s="36"/>
-      <c r="N207" s="36"/>
-      <c r="O207" s="36"/>
-      <c r="P207" s="37"/>
-      <c r="Q207" s="35" t="s">
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="35"/>
+      <c r="J207" s="35"/>
+      <c r="K207" s="35"/>
+      <c r="L207" s="35"/>
+      <c r="M207" s="35"/>
+      <c r="N207" s="35"/>
+      <c r="O207" s="35"/>
+      <c r="P207" s="36"/>
+      <c r="Q207" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R207" s="36"/>
-      <c r="S207" s="37"/>
+      <c r="R207" s="35"/>
+      <c r="S207" s="36"/>
     </row>
     <row r="208" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
       <c r="D208" s="8" t="s">
         <v>15</v>
       </c>
@@ -9229,40 +9229,40 @@
       <c r="S218" s="28"/>
     </row>
     <row r="219" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="38" t="s">
+      <c r="A219" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B219" s="38" t="s">
+      <c r="B219" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C219" s="38" t="s">
+      <c r="C219" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D219" s="35" t="s">
+      <c r="D219" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="36"/>
-      <c r="H219" s="36"/>
-      <c r="I219" s="36"/>
-      <c r="J219" s="36"/>
-      <c r="K219" s="36"/>
-      <c r="L219" s="36"/>
-      <c r="M219" s="36"/>
-      <c r="N219" s="36"/>
-      <c r="O219" s="36"/>
-      <c r="P219" s="37"/>
-      <c r="Q219" s="35" t="s">
+      <c r="E219" s="35"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="35"/>
+      <c r="J219" s="35"/>
+      <c r="K219" s="35"/>
+      <c r="L219" s="35"/>
+      <c r="M219" s="35"/>
+      <c r="N219" s="35"/>
+      <c r="O219" s="35"/>
+      <c r="P219" s="36"/>
+      <c r="Q219" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R219" s="36"/>
-      <c r="S219" s="37"/>
+      <c r="R219" s="35"/>
+      <c r="S219" s="36"/>
     </row>
     <row r="220" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
       <c r="D220" s="8" t="s">
         <v>15</v>
       </c>
@@ -9605,40 +9605,40 @@
       <c r="S230" s="28"/>
     </row>
     <row r="231" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="38" t="s">
+      <c r="A231" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="38" t="s">
+      <c r="B231" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="38" t="s">
+      <c r="C231" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D231" s="35" t="s">
+      <c r="D231" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
-      <c r="I231" s="36"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="36"/>
-      <c r="L231" s="36"/>
-      <c r="M231" s="36"/>
-      <c r="N231" s="36"/>
-      <c r="O231" s="36"/>
-      <c r="P231" s="37"/>
-      <c r="Q231" s="35" t="s">
+      <c r="E231" s="35"/>
+      <c r="F231" s="35"/>
+      <c r="G231" s="35"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="35"/>
+      <c r="J231" s="35"/>
+      <c r="K231" s="35"/>
+      <c r="L231" s="35"/>
+      <c r="M231" s="35"/>
+      <c r="N231" s="35"/>
+      <c r="O231" s="35"/>
+      <c r="P231" s="36"/>
+      <c r="Q231" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R231" s="36"/>
-      <c r="S231" s="37"/>
+      <c r="R231" s="35"/>
+      <c r="S231" s="36"/>
     </row>
     <row r="232" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="39"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
       <c r="D232" s="8" t="s">
         <v>15</v>
       </c>
@@ -10006,40 +10006,40 @@
       <c r="S243" s="18"/>
     </row>
     <row r="244" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="38" t="s">
+      <c r="A244" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C244" s="38" t="s">
+      <c r="C244" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="35" t="s">
+      <c r="D244" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E244" s="36"/>
-      <c r="F244" s="36"/>
-      <c r="G244" s="36"/>
-      <c r="H244" s="36"/>
-      <c r="I244" s="36"/>
-      <c r="J244" s="36"/>
-      <c r="K244" s="36"/>
-      <c r="L244" s="36"/>
-      <c r="M244" s="36"/>
-      <c r="N244" s="36"/>
-      <c r="O244" s="36"/>
-      <c r="P244" s="37"/>
-      <c r="Q244" s="35" t="s">
+      <c r="E244" s="35"/>
+      <c r="F244" s="35"/>
+      <c r="G244" s="35"/>
+      <c r="H244" s="35"/>
+      <c r="I244" s="35"/>
+      <c r="J244" s="35"/>
+      <c r="K244" s="35"/>
+      <c r="L244" s="35"/>
+      <c r="M244" s="35"/>
+      <c r="N244" s="35"/>
+      <c r="O244" s="35"/>
+      <c r="P244" s="36"/>
+      <c r="Q244" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R244" s="36"/>
-      <c r="S244" s="37"/>
+      <c r="R244" s="35"/>
+      <c r="S244" s="36"/>
     </row>
     <row r="245" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
+      <c r="A245" s="33"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="33"/>
       <c r="D245" s="8" t="s">
         <v>15</v>
       </c>
@@ -10380,40 +10380,40 @@
       <c r="S255" s="28"/>
     </row>
     <row r="256" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="38" t="s">
+      <c r="A256" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B256" s="38" t="s">
+      <c r="B256" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C256" s="38" t="s">
+      <c r="C256" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D256" s="35" t="s">
+      <c r="D256" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E256" s="36"/>
-      <c r="F256" s="36"/>
-      <c r="G256" s="36"/>
-      <c r="H256" s="36"/>
-      <c r="I256" s="36"/>
-      <c r="J256" s="36"/>
-      <c r="K256" s="36"/>
-      <c r="L256" s="36"/>
-      <c r="M256" s="36"/>
-      <c r="N256" s="36"/>
-      <c r="O256" s="36"/>
-      <c r="P256" s="37"/>
-      <c r="Q256" s="35" t="s">
+      <c r="E256" s="35"/>
+      <c r="F256" s="35"/>
+      <c r="G256" s="35"/>
+      <c r="H256" s="35"/>
+      <c r="I256" s="35"/>
+      <c r="J256" s="35"/>
+      <c r="K256" s="35"/>
+      <c r="L256" s="35"/>
+      <c r="M256" s="35"/>
+      <c r="N256" s="35"/>
+      <c r="O256" s="35"/>
+      <c r="P256" s="36"/>
+      <c r="Q256" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R256" s="36"/>
-      <c r="S256" s="37"/>
+      <c r="R256" s="35"/>
+      <c r="S256" s="36"/>
     </row>
     <row r="257" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="39"/>
-      <c r="B257" s="39"/>
-      <c r="C257" s="39"/>
+      <c r="A257" s="33"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="33"/>
       <c r="D257" s="8" t="s">
         <v>15</v>
       </c>
@@ -10756,40 +10756,40 @@
       <c r="S267" s="28"/>
     </row>
     <row r="268" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="38" t="s">
+      <c r="A268" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B268" s="38" t="s">
+      <c r="B268" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E268" s="36"/>
-      <c r="F268" s="36"/>
-      <c r="G268" s="36"/>
-      <c r="H268" s="36"/>
-      <c r="I268" s="36"/>
-      <c r="J268" s="36"/>
-      <c r="K268" s="36"/>
-      <c r="L268" s="36"/>
-      <c r="M268" s="36"/>
-      <c r="N268" s="36"/>
-      <c r="O268" s="36"/>
-      <c r="P268" s="37"/>
-      <c r="Q268" s="35" t="s">
+      <c r="E268" s="35"/>
+      <c r="F268" s="35"/>
+      <c r="G268" s="35"/>
+      <c r="H268" s="35"/>
+      <c r="I268" s="35"/>
+      <c r="J268" s="35"/>
+      <c r="K268" s="35"/>
+      <c r="L268" s="35"/>
+      <c r="M268" s="35"/>
+      <c r="N268" s="35"/>
+      <c r="O268" s="35"/>
+      <c r="P268" s="36"/>
+      <c r="Q268" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R268" s="36"/>
-      <c r="S268" s="37"/>
+      <c r="R268" s="35"/>
+      <c r="S268" s="36"/>
     </row>
     <row r="269" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="39"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
+      <c r="A269" s="33"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
       <c r="D269" s="8" t="s">
         <v>15</v>
       </c>
@@ -11134,40 +11134,40 @@
       <c r="S279" s="18"/>
     </row>
     <row r="280" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="38" t="s">
+      <c r="A280" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B280" s="38" t="s">
+      <c r="B280" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C280" s="38" t="s">
+      <c r="C280" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D280" s="35" t="s">
+      <c r="D280" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E280" s="36"/>
-      <c r="F280" s="36"/>
-      <c r="G280" s="36"/>
-      <c r="H280" s="36"/>
-      <c r="I280" s="36"/>
-      <c r="J280" s="36"/>
-      <c r="K280" s="36"/>
-      <c r="L280" s="36"/>
-      <c r="M280" s="36"/>
-      <c r="N280" s="36"/>
-      <c r="O280" s="36"/>
-      <c r="P280" s="37"/>
-      <c r="Q280" s="35" t="s">
+      <c r="E280" s="35"/>
+      <c r="F280" s="35"/>
+      <c r="G280" s="35"/>
+      <c r="H280" s="35"/>
+      <c r="I280" s="35"/>
+      <c r="J280" s="35"/>
+      <c r="K280" s="35"/>
+      <c r="L280" s="35"/>
+      <c r="M280" s="35"/>
+      <c r="N280" s="35"/>
+      <c r="O280" s="35"/>
+      <c r="P280" s="36"/>
+      <c r="Q280" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R280" s="36"/>
-      <c r="S280" s="37"/>
+      <c r="R280" s="35"/>
+      <c r="S280" s="36"/>
     </row>
     <row r="281" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="39"/>
-      <c r="B281" s="39"/>
-      <c r="C281" s="39"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
       <c r="D281" s="8" t="s">
         <v>15</v>
       </c>
@@ -11485,40 +11485,40 @@
       <c r="S290" s="26"/>
     </row>
     <row r="291" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="38" t="s">
+      <c r="A291" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B291" s="38" t="s">
+      <c r="B291" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C291" s="38" t="s">
+      <c r="C291" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D291" s="35" t="s">
+      <c r="D291" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E291" s="36"/>
-      <c r="F291" s="36"/>
-      <c r="G291" s="36"/>
-      <c r="H291" s="36"/>
-      <c r="I291" s="36"/>
-      <c r="J291" s="36"/>
-      <c r="K291" s="36"/>
-      <c r="L291" s="36"/>
-      <c r="M291" s="36"/>
-      <c r="N291" s="36"/>
-      <c r="O291" s="36"/>
-      <c r="P291" s="37"/>
-      <c r="Q291" s="35" t="s">
+      <c r="E291" s="35"/>
+      <c r="F291" s="35"/>
+      <c r="G291" s="35"/>
+      <c r="H291" s="35"/>
+      <c r="I291" s="35"/>
+      <c r="J291" s="35"/>
+      <c r="K291" s="35"/>
+      <c r="L291" s="35"/>
+      <c r="M291" s="35"/>
+      <c r="N291" s="35"/>
+      <c r="O291" s="35"/>
+      <c r="P291" s="36"/>
+      <c r="Q291" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R291" s="36"/>
-      <c r="S291" s="37"/>
+      <c r="R291" s="35"/>
+      <c r="S291" s="36"/>
     </row>
     <row r="292" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="39"/>
-      <c r="B292" s="39"/>
-      <c r="C292" s="39"/>
+      <c r="A292" s="33"/>
+      <c r="B292" s="33"/>
+      <c r="C292" s="33"/>
       <c r="D292" s="8" t="s">
         <v>15</v>
       </c>
@@ -11838,40 +11838,40 @@
       <c r="S301" s="18"/>
     </row>
     <row r="302" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="38" t="s">
+      <c r="A302" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B302" s="38" t="s">
+      <c r="B302" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C302" s="38" t="s">
+      <c r="C302" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D302" s="35" t="s">
+      <c r="D302" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E302" s="36"/>
-      <c r="F302" s="36"/>
-      <c r="G302" s="36"/>
-      <c r="H302" s="36"/>
-      <c r="I302" s="36"/>
-      <c r="J302" s="36"/>
-      <c r="K302" s="36"/>
-      <c r="L302" s="36"/>
-      <c r="M302" s="36"/>
-      <c r="N302" s="36"/>
-      <c r="O302" s="36"/>
-      <c r="P302" s="37"/>
-      <c r="Q302" s="35" t="s">
+      <c r="E302" s="35"/>
+      <c r="F302" s="35"/>
+      <c r="G302" s="35"/>
+      <c r="H302" s="35"/>
+      <c r="I302" s="35"/>
+      <c r="J302" s="35"/>
+      <c r="K302" s="35"/>
+      <c r="L302" s="35"/>
+      <c r="M302" s="35"/>
+      <c r="N302" s="35"/>
+      <c r="O302" s="35"/>
+      <c r="P302" s="36"/>
+      <c r="Q302" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R302" s="36"/>
-      <c r="S302" s="37"/>
+      <c r="R302" s="35"/>
+      <c r="S302" s="36"/>
     </row>
     <row r="303" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="39"/>
-      <c r="B303" s="39"/>
-      <c r="C303" s="39"/>
+      <c r="A303" s="33"/>
+      <c r="B303" s="33"/>
+      <c r="C303" s="33"/>
       <c r="D303" s="8" t="s">
         <v>15</v>
       </c>
@@ -12218,40 +12218,40 @@
       <c r="S313" s="28"/>
     </row>
     <row r="314" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="38" t="s">
+      <c r="A314" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B314" s="38" t="s">
+      <c r="B314" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C314" s="38" t="s">
+      <c r="C314" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D314" s="35" t="s">
+      <c r="D314" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E314" s="36"/>
-      <c r="F314" s="36"/>
-      <c r="G314" s="36"/>
-      <c r="H314" s="36"/>
-      <c r="I314" s="36"/>
-      <c r="J314" s="36"/>
-      <c r="K314" s="36"/>
-      <c r="L314" s="36"/>
-      <c r="M314" s="36"/>
-      <c r="N314" s="36"/>
-      <c r="O314" s="36"/>
-      <c r="P314" s="37"/>
-      <c r="Q314" s="35" t="s">
+      <c r="E314" s="35"/>
+      <c r="F314" s="35"/>
+      <c r="G314" s="35"/>
+      <c r="H314" s="35"/>
+      <c r="I314" s="35"/>
+      <c r="J314" s="35"/>
+      <c r="K314" s="35"/>
+      <c r="L314" s="35"/>
+      <c r="M314" s="35"/>
+      <c r="N314" s="35"/>
+      <c r="O314" s="35"/>
+      <c r="P314" s="36"/>
+      <c r="Q314" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R314" s="36"/>
-      <c r="S314" s="37"/>
+      <c r="R314" s="35"/>
+      <c r="S314" s="36"/>
     </row>
     <row r="315" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="39"/>
-      <c r="B315" s="39"/>
-      <c r="C315" s="39"/>
+      <c r="A315" s="33"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="33"/>
       <c r="D315" s="8" t="s">
         <v>15</v>
       </c>
@@ -12594,40 +12594,40 @@
       <c r="S325" s="26"/>
     </row>
     <row r="326" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="38" t="s">
+      <c r="A326" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B326" s="38" t="s">
+      <c r="B326" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C326" s="38" t="s">
+      <c r="C326" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D326" s="35" t="s">
+      <c r="D326" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E326" s="36"/>
-      <c r="F326" s="36"/>
-      <c r="G326" s="36"/>
-      <c r="H326" s="36"/>
-      <c r="I326" s="36"/>
-      <c r="J326" s="36"/>
-      <c r="K326" s="36"/>
-      <c r="L326" s="36"/>
-      <c r="M326" s="36"/>
-      <c r="N326" s="36"/>
-      <c r="O326" s="36"/>
-      <c r="P326" s="37"/>
-      <c r="Q326" s="35" t="s">
+      <c r="E326" s="35"/>
+      <c r="F326" s="35"/>
+      <c r="G326" s="35"/>
+      <c r="H326" s="35"/>
+      <c r="I326" s="35"/>
+      <c r="J326" s="35"/>
+      <c r="K326" s="35"/>
+      <c r="L326" s="35"/>
+      <c r="M326" s="35"/>
+      <c r="N326" s="35"/>
+      <c r="O326" s="35"/>
+      <c r="P326" s="36"/>
+      <c r="Q326" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R326" s="36"/>
-      <c r="S326" s="37"/>
+      <c r="R326" s="35"/>
+      <c r="S326" s="36"/>
     </row>
     <row r="327" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="39"/>
-      <c r="B327" s="39"/>
-      <c r="C327" s="39"/>
+      <c r="A327" s="33"/>
+      <c r="B327" s="33"/>
+      <c r="C327" s="33"/>
       <c r="D327" s="8" t="s">
         <v>15</v>
       </c>
@@ -12974,40 +12974,40 @@
       <c r="S337" s="26"/>
     </row>
     <row r="338" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="38" t="s">
+      <c r="A338" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B338" s="38" t="s">
+      <c r="B338" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C338" s="38" t="s">
+      <c r="C338" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D338" s="35" t="s">
+      <c r="D338" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E338" s="36"/>
-      <c r="F338" s="36"/>
-      <c r="G338" s="36"/>
-      <c r="H338" s="36"/>
-      <c r="I338" s="36"/>
-      <c r="J338" s="36"/>
-      <c r="K338" s="36"/>
-      <c r="L338" s="36"/>
-      <c r="M338" s="36"/>
-      <c r="N338" s="36"/>
-      <c r="O338" s="36"/>
-      <c r="P338" s="37"/>
-      <c r="Q338" s="35" t="s">
+      <c r="E338" s="35"/>
+      <c r="F338" s="35"/>
+      <c r="G338" s="35"/>
+      <c r="H338" s="35"/>
+      <c r="I338" s="35"/>
+      <c r="J338" s="35"/>
+      <c r="K338" s="35"/>
+      <c r="L338" s="35"/>
+      <c r="M338" s="35"/>
+      <c r="N338" s="35"/>
+      <c r="O338" s="35"/>
+      <c r="P338" s="36"/>
+      <c r="Q338" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R338" s="36"/>
-      <c r="S338" s="37"/>
+      <c r="R338" s="35"/>
+      <c r="S338" s="36"/>
     </row>
     <row r="339" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="39"/>
-      <c r="B339" s="39"/>
-      <c r="C339" s="39"/>
+      <c r="A339" s="33"/>
+      <c r="B339" s="33"/>
+      <c r="C339" s="33"/>
       <c r="D339" s="8" t="s">
         <v>15</v>
       </c>
@@ -13354,40 +13354,40 @@
       <c r="S349" s="8"/>
     </row>
     <row r="350" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="38" t="s">
+      <c r="A350" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B350" s="38" t="s">
+      <c r="B350" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C350" s="38" t="s">
+      <c r="C350" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D350" s="35" t="s">
+      <c r="D350" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E350" s="36"/>
-      <c r="F350" s="36"/>
-      <c r="G350" s="36"/>
-      <c r="H350" s="36"/>
-      <c r="I350" s="36"/>
-      <c r="J350" s="36"/>
-      <c r="K350" s="36"/>
-      <c r="L350" s="36"/>
-      <c r="M350" s="36"/>
-      <c r="N350" s="36"/>
-      <c r="O350" s="36"/>
-      <c r="P350" s="37"/>
-      <c r="Q350" s="35" t="s">
+      <c r="E350" s="35"/>
+      <c r="F350" s="35"/>
+      <c r="G350" s="35"/>
+      <c r="H350" s="35"/>
+      <c r="I350" s="35"/>
+      <c r="J350" s="35"/>
+      <c r="K350" s="35"/>
+      <c r="L350" s="35"/>
+      <c r="M350" s="35"/>
+      <c r="N350" s="35"/>
+      <c r="O350" s="35"/>
+      <c r="P350" s="36"/>
+      <c r="Q350" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R350" s="36"/>
-      <c r="S350" s="37"/>
+      <c r="R350" s="35"/>
+      <c r="S350" s="36"/>
     </row>
     <row r="351" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="39"/>
-      <c r="B351" s="39"/>
-      <c r="C351" s="39"/>
+      <c r="A351" s="33"/>
+      <c r="B351" s="33"/>
+      <c r="C351" s="33"/>
       <c r="D351" s="8" t="s">
         <v>15</v>
       </c>
@@ -13778,6 +13778,139 @@
     </row>
   </sheetData>
   <mergeCells count="153">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:P64"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:P87"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:P111"/>
+    <mergeCell ref="Q111:S111"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:P123"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:P135"/>
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:P147"/>
+    <mergeCell ref="Q147:S147"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:P160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:P173"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:P184"/>
+    <mergeCell ref="Q184:S184"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:P195"/>
+    <mergeCell ref="Q195:S195"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:P207"/>
+    <mergeCell ref="Q207:S207"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:P219"/>
+    <mergeCell ref="Q219:S219"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:P231"/>
+    <mergeCell ref="Q231:S231"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:P244"/>
+    <mergeCell ref="Q244:S244"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:P256"/>
+    <mergeCell ref="Q256:S256"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:P268"/>
+    <mergeCell ref="Q268:S268"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:P280"/>
+    <mergeCell ref="Q280:S280"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:P291"/>
+    <mergeCell ref="Q291:S291"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="D302:P302"/>
+    <mergeCell ref="Q302:S302"/>
     <mergeCell ref="A314:A315"/>
     <mergeCell ref="B314:B315"/>
     <mergeCell ref="C314:C315"/>
@@ -13798,139 +13931,6 @@
     <mergeCell ref="C338:C339"/>
     <mergeCell ref="D338:P338"/>
     <mergeCell ref="Q338:S338"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:P291"/>
-    <mergeCell ref="Q291:S291"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="D302:P302"/>
-    <mergeCell ref="Q302:S302"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:P268"/>
-    <mergeCell ref="Q268:S268"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:P280"/>
-    <mergeCell ref="Q280:S280"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:P244"/>
-    <mergeCell ref="Q244:S244"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:P256"/>
-    <mergeCell ref="Q256:S256"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:P219"/>
-    <mergeCell ref="Q219:S219"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:P231"/>
-    <mergeCell ref="Q231:S231"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:P195"/>
-    <mergeCell ref="Q195:S195"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:P207"/>
-    <mergeCell ref="Q207:S207"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:P173"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:P184"/>
-    <mergeCell ref="Q184:S184"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:P147"/>
-    <mergeCell ref="Q147:S147"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:P160"/>
-    <mergeCell ref="Q160:S160"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:P123"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:P135"/>
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:P99"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:P111"/>
-    <mergeCell ref="Q111:S111"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:P87"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:P52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:P64"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="Q18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
